--- a/Documentation/MSYSADD1/EXISTING/EventTable(Existing)Student.xlsx
+++ b/Documentation/MSYSADD1/EXISTING/EventTable(Existing)Student.xlsx
@@ -65,15 +65,9 @@
     <t>Student takes quiz / homework / exercises</t>
   </si>
   <si>
-    <t>Look for the quiz / homework  /exercises papers</t>
-  </si>
-  <si>
     <t>Quiz / homework / exercises papers</t>
   </si>
   <si>
-    <t>Student checks his or her schedule</t>
-  </si>
-  <si>
     <t>Look for the record of the student's grades</t>
   </si>
   <si>
@@ -107,13 +101,19 @@
     <t xml:space="preserve">Student asked for the summary of final grade </t>
   </si>
   <si>
-    <t>Student wants to check his or her summary of final grade.</t>
-  </si>
-  <si>
     <t>Schedule request change</t>
   </si>
   <si>
-    <t xml:space="preserve"> Update and gives schedule</t>
+    <t>Answer the quiz / homework  /exercises papers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Update the schedule</t>
+  </si>
+  <si>
+    <t>Student wants to check his/her summary of final grade.</t>
+  </si>
+  <si>
+    <t>Student checks his/her schedule</t>
   </si>
 </sst>
 </file>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,16 +799,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>8</v>
@@ -822,22 +822,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
@@ -854,13 +854,13 @@
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
@@ -868,7 +868,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>11</v>
@@ -877,13 +877,13 @@
         <v>7</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.7">
@@ -891,22 +891,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.3"/>
